--- a/medicine/Bioéthique/Corinne_Antignac/Corinne_Antignac.xlsx
+++ b/medicine/Bioéthique/Corinne_Antignac/Corinne_Antignac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corinne Antignac est pédiatre, néphrologue, généticienne, professeur de médecine et spécialiste de génétique moléculaire en pédiatrie à l'hôpital Necker-Enfants malades.  Elle étudie les maladies génétiques et plus particulièrement les maladies rénales héréditaires et rares comme la cystinose[1],[2],[3] ou le syndrome d'Alport[4].
-Professeur de génétique à l'université Paris-Descartes/Université de Paris, directrice du laboratoire Imagine de l'INSERM (unité U1163) et praticienne hospitalière AP-HP, elle est également membre de l'Académie des sciences section : biologie humaine et sciences médicales, élue membre le 17 décembre 2019[5],[6],[7],[8],[9],[10].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corinne Antignac est pédiatre, néphrologue, généticienne, professeur de médecine et spécialiste de génétique moléculaire en pédiatrie à l'hôpital Necker-Enfants malades.  Elle étudie les maladies génétiques et plus particulièrement les maladies rénales héréditaires et rares comme la cystinose ou le syndrome d'Alport.
+Professeur de génétique à l'université Paris-Descartes/Université de Paris, directrice du laboratoire Imagine de l'INSERM (unité U1163) et praticienne hospitalière AP-HP, elle est également membre de l'Académie des sciences section : biologie humaine et sciences médicales, élue membre le 17 décembre 2019.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1994, Corinne Antignac soutient une thèse à Paris-VI sous la direction du Dr Junien sur les néphropathies héréditaires avec anomalies des membranes basales : syndrome d'Alport et néphronophthise[11].
-En 1999, elle est recrutée comme chercheuse à  l'INSERM[12]. Elle y dirige actuellement le laboratoire Imagine.
-Le professeur Corinne Antignac exerce à l'hôpital Necker-Enfants malades en tant que pédiatre, néphrologue[13]. Son domaine de recherche s'étend sur les pathologies génétiques sur les enfants malades et particulièrement sur les maladies rénales héréditaires[14],[15],[16].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1994, Corinne Antignac soutient une thèse à Paris-VI sous la direction du Dr Junien sur les néphropathies héréditaires avec anomalies des membranes basales : syndrome d'Alport et néphronophthise.
+En 1999, elle est recrutée comme chercheuse à  l'INSERM. Elle y dirige actuellement le laboratoire Imagine.
+Le professeur Corinne Antignac exerce à l'hôpital Necker-Enfants malades en tant que pédiatre, néphrologue. Son domaine de recherche s'étend sur les pathologies génétiques sur les enfants malades et particulièrement sur les maladies rénales héréditaires.
 </t>
         </is>
       </c>
@@ -545,16 +559,18 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle est l'autrice de nombreuses publications[17],[18],[19].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle est l'autrice de nombreuses publications.
 Pathologies néphrologiques :
-2006 : les mutations des gènes du système rénine-angiotensine et dysgénésie tubulaire rénale [20].
+2006 : les mutations des gènes du système rénine-angiotensine et dysgénésie tubulaire rénale .
 2020 : le défaut de pseudouridylation dû aux mutations DKC1 et NOP10 provoquant un syndrome néphrotique avec cataractes, déficience auditive et entérocolite.
 2020 : génération d'une lignée de cellules souches pluripotentes induites (iPSC) (IMAGINi007) à partir d'un patient atteint d'un syndrome néphrotique résistant aux stéroïdes portant la mutation homozygote p.R138Q dans le gène NPHS2 codant la podocine (en).
-2021 : étude des variations pathogènes bi-alléliques de l'ADNJB11 qui provoquent le syndrome d'Ivemark II, une dysplasie rénale-hépatique-pancréatique [21].
+2021 : étude des variations pathogènes bi-alléliques de l'ADNJB11 qui provoquent le syndrome d'Ivemark II, une dysplasie rénale-hépatique-pancréatique .
 Pathologies neurologiques :
-2021 : origine du syndrome neurologique Galloway-Mowat[22] .</t>
+2021 : origine du syndrome neurologique Galloway-Mowat .</t>
         </is>
       </c>
     </row>
@@ -582,9 +598,11 @@
           <t>Responsabilités académiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, elle fait partie de la commission spéciale chargée d’examiner le projet de loi relatif à la bioéthique[23].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, elle fait partie de la commission spéciale chargée d’examiner le projet de loi relatif à la bioéthique.
 En 2021, elle a dirigé 10 thèses, a été présidente de jury pour 2 thèses et rapporteuse pour 2 thèses.
 </t>
         </is>
@@ -614,9 +632,11 @@
           <t>Honneurs et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix Eloie Collery de l'Académie nationale de médecine, 2001[24]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix Eloie Collery de l'Académie nationale de médecine, 2001
 Prix international Lillian Jean Kaplan, 2009
 Élection à l'Académie des sciences, 2019</t>
         </is>
